--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BF6147-CB03-D840-BC94-C80DA0A73780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCA794B-CAA0-BB44-81FC-FDBE2359DBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
   <si>
     <t>sequenceID</t>
   </si>
@@ -101,36 +101,38 @@
     <t>amdo.1-ellobius</t>
   </si>
   <si>
-    <t>fasta-refseqs-epv</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
     <t>nk</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>Amdoparvovirus</t>
   </si>
   <si>
     <t>amdo.2-ellobius</t>
+  </si>
+  <si>
+    <t>amdo.101-protobothrops</t>
+  </si>
+  <si>
+    <t>amdo.102-procavia</t>
+  </si>
+  <si>
+    <t>amdo.103-orycteropus</t>
+  </si>
+  <si>
+    <t>amdo.104-sarcophilus</t>
+  </si>
+  <si>
+    <t>fasta-refseqs-amdo-epv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,26 +212,28 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,153 +548,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>26</v>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>101</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="C6" s="10">
+        <v>103</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="S3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>26</v>
+      <c r="C7" s="10">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCA794B-CAA0-BB44-81FC-FDBE2359DBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D161220-73E0-0D4C-98B7-D23E6C3D4F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
+    <workbookView xWindow="5140" yWindow="1420" windowWidth="21120" windowHeight="10700" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +548,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,6 +556,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="18" max="18" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -757,13 +755,13 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>101</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -822,13 +820,13 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>102</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -887,13 +885,13 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>103</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -952,13 +950,13 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>104</v>
       </c>
       <c r="D7" s="7" t="s">

--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D161220-73E0-0D4C-98B7-D23E6C3D4F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18DBECC-6C6B-3246-BD6E-818C991FFD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1420" windowWidth="21120" windowHeight="10700" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
   <si>
     <t>sequenceID</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>fasta-refseqs-amdo-epv</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
   </si>
 </sst>
 </file>
@@ -545,107 +551,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A1:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
-    <col min="18" max="18" width="23.83203125" customWidth="1"/>
+    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
@@ -682,35 +691,38 @@
       <c r="S2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
+      <c r="T2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
@@ -747,35 +759,38 @@
       <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>25</v>
+      <c r="T3" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="V3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <v>101</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
@@ -812,35 +827,38 @@
       <c r="S4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T4" t="s">
-        <v>26</v>
+      <c r="T4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
       </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>102</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
@@ -877,35 +895,38 @@
       <c r="S5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T5" t="s">
-        <v>27</v>
+      <c r="T5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
       </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>103</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
@@ -942,35 +963,38 @@
       <c r="S6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T6" t="s">
-        <v>28</v>
+      <c r="T6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>28</v>
       </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <v>104</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1007,10 +1031,13 @@
       <c r="S7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" t="s">
         <v>29</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18DBECC-6C6B-3246-BD6E-818C991FFD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B13D12-87FC-4A4A-AADC-CA38B0B530A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1420" windowWidth="21120" windowHeight="10700" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
+    <workbookView xWindow="7260" yWindow="10260" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
   <si>
     <t>sequenceID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>nearest_downstream_orf</t>
   </si>
   <si>
-    <t>human_chr</t>
-  </si>
-  <si>
     <t>minimum_age_ortho</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>nk</t>
-  </si>
-  <si>
     <t>Amdoparvovirus</t>
   </si>
   <si>
@@ -132,13 +126,31 @@
   </si>
   <si>
     <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Ellobius</t>
+  </si>
+  <si>
+    <t>assign_clade</t>
+  </si>
+  <si>
+    <t>assign_subclade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,8 +189,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +223,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:V7"/>
+      <selection activeCell="N6" sqref="A1:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,18 +591,29 @@
     <col min="1" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.1640625" customWidth="1"/>
+    <col min="20" max="20" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -587,458 +627,479 @@
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="10">
+        <v>30443409</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="10">
+        <v>30443409</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6">
         <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="10">
+        <v>30443409</v>
       </c>
       <c r="V4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="W4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6">
         <v>102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="10">
+        <v>30443409</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="W5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
         <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="10">
+        <v>30443409</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="W6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6">
         <v>104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="10">
+        <v>30443409</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B13D12-87FC-4A4A-AADC-CA38B0B530A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A7F442-E512-AE40-A2E9-B39567FA631B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="10260" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
+    <workbookView xWindow="19280" yWindow="6440" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="A1:W7"/>
+      <selection activeCell="B13" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-amdo-refseqs-side-data.xlsx
+++ b/tabular/eve/epv-amdo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A7F442-E512-AE40-A2E9-B39567FA631B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846B0D4-3DB0-994B-8957-C8717EC4A687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="6440" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
+    <workbookView xWindow="9040" yWindow="9680" windowWidth="32880" windowHeight="17240" xr2:uid="{7DFEF833-9CB6-184F-AD64-EB162905208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,18 +107,6 @@
     <t>amdo.2-ellobius</t>
   </si>
   <si>
-    <t>amdo.101-protobothrops</t>
-  </si>
-  <si>
-    <t>amdo.102-procavia</t>
-  </si>
-  <si>
-    <t>amdo.103-orycteropus</t>
-  </si>
-  <si>
-    <t>amdo.104-sarcophilus</t>
-  </si>
-  <si>
     <t>fasta-refseqs-amdo-epv</t>
   </si>
   <si>
@@ -144,6 +132,18 @@
   </si>
   <si>
     <t>assign_subclade</t>
+  </si>
+  <si>
+    <t>ap.102-procavia</t>
+  </si>
+  <si>
+    <t>ap.103-orycteropus</t>
+  </si>
+  <si>
+    <t>ap.104-sarcophilus</t>
+  </si>
+  <si>
+    <t>ap.101-serpentes-UR</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DEEDB-7439-774B-BFFC-655641BD9B32}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
@@ -628,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
@@ -717,33 +717,33 @@
         <v>22</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" s="10">
         <v>30443409</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>22</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>21</v>
@@ -788,42 +788,42 @@
         <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U3" s="10">
         <v>30443409</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>22</v>
@@ -832,7 +832,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>21</v>
@@ -859,42 +859,42 @@
         <v>22</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U4" s="10">
         <v>30443409</v>
       </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" t="s">
-        <v>24</v>
+      <c r="V4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -903,7 +903,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>21</v>
@@ -930,42 +930,42 @@
         <v>22</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U5" s="10">
         <v>30443409</v>
       </c>
-      <c r="V5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" t="s">
-        <v>25</v>
+      <c r="V5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>22</v>
@@ -974,7 +974,7 @@
         <v>103</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
@@ -1001,42 +1001,42 @@
         <v>22</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U6" s="10">
         <v>30443409</v>
       </c>
-      <c r="V6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
+      <c r="V6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>22</v>
@@ -1045,7 +1045,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -1072,34 +1072,34 @@
         <v>22</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U7" s="10">
         <v>30443409</v>
       </c>
-      <c r="V7" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" t="s">
-        <v>27</v>
+      <c r="V7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
